--- a/results/ExperimentsRawData.xlsx
+++ b/results/ExperimentsRawData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/konstantinigin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/konstantinigin/Desktop/Projects/pyprojects/spark-3.0.1-bin-hadoop3.2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F168A376-16AE-9C41-BC04-D41AD9AE545F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655B2991-8FFC-3A48-B1C9-07D7DDD4B9C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$339</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$337</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="15">
   <si>
     <t>strategy</t>
   </si>
@@ -79,27 +79,6 @@
   </si>
   <si>
     <t>SEAL</t>
-  </si>
-  <si>
-    <t>Configuration</t>
-  </si>
-  <si>
-    <t>Dataset</t>
-  </si>
-  <si>
-    <t>4 Executors</t>
-  </si>
-  <si>
-    <t>10 links</t>
-  </si>
-  <si>
-    <t>100 links</t>
-  </si>
-  <si>
-    <t>500 links</t>
-  </si>
-  <si>
-    <t>1000 links</t>
   </si>
 </sst>
 </file>
@@ -463,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F339"/>
+  <dimension ref="A1:F337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -475,83 +454,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>37.958311557769782</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>233.70765376091001</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>252.427365064621</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>225.18344831466669</v>
+        <v>6.2865569591522217</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3">
+        <v>9.6162731647491455</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>6.2865569591522217</v>
+        <v>257.48689436912542</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -565,33 +544,33 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>500</v>
       </c>
       <c r="F5">
-        <v>9.6162731647491455</v>
+        <v>9.3895950317382812</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>257.48689436912542</v>
+        <v>2.6959421634674068</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -599,19 +578,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="F7">
-        <v>9.3895950317382812</v>
+        <v>4975.0439920425424</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -628,30 +607,30 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F8">
-        <v>2.6959421634674068</v>
+        <v>3.723849773406982</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>4975.0439920425424</v>
+        <v>52.340848684310913</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -659,27 +638,27 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="F10">
-        <v>3.723849773406982</v>
+        <v>12.3998749256134</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -688,30 +667,30 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F11">
-        <v>52.340848684310913</v>
+        <v>4.1116402149200439</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>12.3998749256134</v>
+        <v>37.958311557769782</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -722,36 +701,36 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F13">
-        <v>4.1116402149200439</v>
+        <v>9.1860313415527344</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F14">
-        <v>37.958311557769782</v>
+        <v>9.5035443305969238</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -759,19 +738,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
       <c r="E15">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>9.1860313415527344</v>
+        <v>3.955028772354126</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -779,19 +758,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>500</v>
       </c>
       <c r="F16">
-        <v>9.5035443305969238</v>
+        <v>763.05827379226685</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -799,19 +778,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F17">
-        <v>3.955028772354126</v>
+        <v>3.8191525936126709</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -819,27 +798,27 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F18">
-        <v>763.05827379226685</v>
+        <v>3.7806212902069092</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -848,10 +827,10 @@
         <v>4</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>3.8191525936126709</v>
+        <v>55.21450400352478</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -859,27 +838,27 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>100</v>
       </c>
       <c r="F20">
-        <v>3.7806212902069092</v>
+        <v>626.75262045860291</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -888,50 +867,50 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F21">
-        <v>55.21450400352478</v>
+        <v>4.1913015842437744</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F22">
-        <v>626.75262045860291</v>
+        <v>290.34999012947083</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>4.1913015842437744</v>
+        <v>19.814504861831669</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -939,7 +918,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -948,50 +927,50 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>290.34999012947083</v>
+        <v>233.70765376091001</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F25">
-        <v>19.814504861831669</v>
+        <v>4.2173192501068124</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F26">
-        <v>233.70765376091001</v>
+        <v>6.8468880653381348</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -999,90 +978,90 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F27">
-        <v>4.2173192501068124</v>
+        <v>8.8494455814361572</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F28">
-        <v>6.8468880653381348</v>
+        <v>252.427365064621</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E29">
         <v>100</v>
       </c>
       <c r="F29">
-        <v>8.8494455814361572</v>
+        <v>1533.3909652233119</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F30">
-        <v>252.427365064621</v>
+        <v>2.999407291412354</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -1091,27 +1070,27 @@
         <v>100</v>
       </c>
       <c r="F31">
-        <v>1533.3909652233119</v>
+        <v>8.8851022720336914</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F32">
-        <v>2.999407291412354</v>
+        <v>670.36499238014221</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1119,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1128,30 +1107,30 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F33">
-        <v>8.8851022720336914</v>
+        <v>15.784199714660639</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F34">
-        <v>670.36499238014221</v>
+        <v>4.142331600189209</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1159,44 +1138,44 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F35">
-        <v>15.784199714660639</v>
+        <v>4.5062375068664551</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>4.142331600189209</v>
+        <v>18.076565265655521</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -1208,10 +1187,10 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F37">
-        <v>4.5062375068664551</v>
+        <v>225.18344831466669</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1219,19 +1198,19 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>10</v>
       </c>
       <c r="F38">
-        <v>18.076565265655521</v>
+        <v>25.213394165039059</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1239,7 +1218,7 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1248,15 +1227,15 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F39">
-        <v>225.18344831466669</v>
+        <v>1487.4013359546659</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1265,33 +1244,33 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F40">
-        <v>25.213394165039059</v>
+        <v>6.5369975566864014</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F41">
-        <v>1487.4013359546659</v>
+        <v>8.6245567798614502</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1299,79 +1278,79 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E42">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F42">
-        <v>6.5369975566864014</v>
+        <v>8.4044177532196045</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>4</v>
       </c>
       <c r="E43">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F43">
-        <v>8.6245567798614502</v>
+        <v>656.40866780281067</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F44">
-        <v>8.4044177532196045</v>
+        <v>2832.7162563800812</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="F45">
-        <v>656.40866780281067</v>
+        <v>57.51463770866394</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1379,7 +1358,7 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1388,15 +1367,15 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F46">
-        <v>2832.7162563800812</v>
+        <v>532.25143647193909</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -1405,53 +1384,53 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="F47">
-        <v>57.51463770866394</v>
+        <v>819.20549917221069</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>100</v>
+        <v>50000</v>
       </c>
       <c r="F48">
-        <v>532.25143647193909</v>
+        <v>263.34052014350891</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E49">
         <v>500</v>
       </c>
       <c r="F49">
-        <v>819.20549917221069</v>
+        <v>3.9351515769958501</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1459,19 +1438,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="F50">
-        <v>263.34052014350891</v>
+        <v>8.5735914707183838</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1479,27 +1458,27 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>500</v>
       </c>
       <c r="F51">
-        <v>3.9351515769958501</v>
+        <v>8.668696403503418</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1508,70 +1487,70 @@
         <v>4</v>
       </c>
       <c r="E52">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F52">
-        <v>8.5735914707183838</v>
+        <v>475.53957724571228</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F53">
-        <v>8.668696403503418</v>
+        <v>503.78675413131708</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E54">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F54">
-        <v>475.53957724571228</v>
+        <v>3.8674130439758301</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F55">
-        <v>503.78675413131708</v>
+        <v>736.69255042076111</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1579,79 +1558,79 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>12</v>
       </c>
       <c r="E56">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F56">
-        <v>3.8674130439758301</v>
+        <v>59.425260543823242</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>8</v>
       </c>
       <c r="E57">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F57">
-        <v>736.69255042076111</v>
+        <v>58.51783561706543</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E58">
         <v>10</v>
       </c>
       <c r="F58">
-        <v>59.425260543823242</v>
+        <v>21.784878253936771</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E59">
         <v>10</v>
       </c>
       <c r="F59">
-        <v>58.51783561706543</v>
+        <v>21.754681587219238</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1665,21 +1644,21 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E60">
         <v>10</v>
       </c>
       <c r="F60">
-        <v>21.784878253936771</v>
+        <v>23.114580869674679</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1688,70 +1667,70 @@
         <v>4</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F61">
-        <v>21.754681587219238</v>
+        <v>516.92807197570801</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F62">
-        <v>23.114580869674679</v>
+        <v>276.0540885925293</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F63">
-        <v>516.92807197570801</v>
+        <v>8.3624849319458008</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <v>4</v>
       </c>
       <c r="E64">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F64">
-        <v>276.0540885925293</v>
+        <v>76.944689035415649</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -1759,19 +1738,19 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>100</v>
+        <v>25000</v>
       </c>
       <c r="F65">
-        <v>8.3624849319458008</v>
+        <v>142.16083264350891</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -1779,19 +1758,19 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E66">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F66">
-        <v>76.944689035415649</v>
+        <v>8.9578142166137695</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -1799,39 +1778,39 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67">
         <v>8</v>
       </c>
       <c r="E67">
-        <v>25000</v>
+        <v>100</v>
       </c>
       <c r="F67">
-        <v>142.16083264350891</v>
+        <v>75.737757921218872</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E68">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F68">
-        <v>8.9578142166137695</v>
+        <v>19.990708589553829</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -1839,39 +1818,39 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>100</v>
+        <v>25000</v>
       </c>
       <c r="F69">
-        <v>75.737757921218872</v>
+        <v>12703.960376977921</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F70">
-        <v>19.990708589553829</v>
+        <v>9.3627183437347412</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -1879,7 +1858,7 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1888,10 +1867,10 @@
         <v>4</v>
       </c>
       <c r="E71">
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="F71">
-        <v>12703.960376977921</v>
+        <v>83.909701824188232</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -1899,19 +1878,19 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E72">
         <v>500</v>
       </c>
       <c r="F72">
-        <v>9.3627183437347412</v>
+        <v>83.221163034439087</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -1919,19 +1898,19 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E73">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F73">
-        <v>83.909701824188232</v>
+        <v>8.8079023361206055</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -1939,19 +1918,19 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E74">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F74">
-        <v>83.221163034439087</v>
+        <v>4.1274588108062744</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -1959,10 +1938,10 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>12</v>
@@ -1971,7 +1950,7 @@
         <v>100</v>
       </c>
       <c r="F75">
-        <v>8.8079023361206055</v>
+        <v>3.8071796894073491</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -1979,24 +1958,24 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F76">
-        <v>4.1274588108062744</v>
+        <v>6.6211402416229248</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -2005,13 +1984,13 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E77">
         <v>100</v>
       </c>
       <c r="F77">
-        <v>3.8071796894073491</v>
+        <v>251.0113046169281</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2019,27 +1998,27 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78">
         <v>4</v>
       </c>
       <c r="E78">
-        <v>100</v>
+        <v>50000</v>
       </c>
       <c r="F78">
-        <v>6.6211402416229248</v>
+        <v>25632.719753265381</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2051,55 +2030,55 @@
         <v>100</v>
       </c>
       <c r="F79">
-        <v>251.0113046169281</v>
+        <v>185.195671081543</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E80">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="F80">
-        <v>25632.719753265381</v>
+        <v>157.0562846660614</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E81">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F81">
-        <v>185.195671081543</v>
+        <v>4.1003715991973877</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2111,27 +2090,27 @@
         <v>100</v>
       </c>
       <c r="F82">
-        <v>157.0562846660614</v>
+        <v>6.3766849040985107</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E83">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F83">
-        <v>4.1003715991973877</v>
+        <v>275.74772620201111</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2139,87 +2118,87 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E84">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F84">
-        <v>6.3766849040985107</v>
+        <v>3.0662493705749512</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <v>1000</v>
       </c>
       <c r="F85">
-        <v>275.74772620201111</v>
+        <v>4.712160587310791</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E86">
         <v>10</v>
       </c>
       <c r="F86">
-        <v>3.0662493705749512</v>
+        <v>52.074611663818359</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E87">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F87">
-        <v>4.712160587310791</v>
+        <v>125.1685135364532</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -2228,10 +2207,10 @@
         <v>8</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F88">
-        <v>52.074611663818359</v>
+        <v>20.737857818603519</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2239,27 +2218,27 @@
         <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E89">
         <v>100</v>
       </c>
       <c r="F89">
-        <v>125.1685135364532</v>
+        <v>134.0103223323822</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -2268,10 +2247,10 @@
         <v>8</v>
       </c>
       <c r="E90">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F90">
-        <v>20.737857818603519</v>
+        <v>37.448312997817993</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -2279,7 +2258,7 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -2288,15 +2267,15 @@
         <v>4</v>
       </c>
       <c r="E91">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F91">
-        <v>134.0103223323822</v>
+        <v>1431.635459661484</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
@@ -2308,18 +2287,18 @@
         <v>8</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F92">
-        <v>37.448312997817993</v>
+        <v>104.5440993309021</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2328,30 +2307,30 @@
         <v>4</v>
       </c>
       <c r="E93">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F93">
-        <v>1431.635459661484</v>
+        <v>31.809704303741459</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E94">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F94">
-        <v>104.5440993309021</v>
+        <v>83.415887117385864</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2359,19 +2338,19 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E95">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F95">
-        <v>31.809704303741459</v>
+        <v>8.8909013271331787</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2379,19 +2358,19 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F96">
-        <v>83.415887117385864</v>
+        <v>1350.4365797042849</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -2399,39 +2378,39 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F97">
-        <v>8.8909013271331787</v>
+        <v>2.9504811763763432</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E98">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F98">
-        <v>1350.4365797042849</v>
+        <v>1842.854664087296</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -2439,19 +2418,19 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E99">
         <v>10</v>
       </c>
       <c r="F99">
-        <v>2.9504811763763432</v>
+        <v>2.515170574188232</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -2459,39 +2438,39 @@
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E100">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F100">
-        <v>1842.854664087296</v>
+        <v>100.3985328674316</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E101">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F101">
-        <v>2.515170574188232</v>
+        <v>996.73091816902161</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -2505,13 +2484,13 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E102">
         <v>100</v>
       </c>
       <c r="F102">
-        <v>100.3985328674316</v>
+        <v>129.46401953697199</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -2519,7 +2498,7 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2528,10 +2507,10 @@
         <v>8</v>
       </c>
       <c r="E103">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F103">
-        <v>996.73091816902161</v>
+        <v>483.84373569488531</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -2545,13 +2524,13 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E104">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F104">
-        <v>129.46401953697199</v>
+        <v>884.85801911354065</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -2565,13 +2544,13 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E105">
         <v>500</v>
       </c>
       <c r="F105">
-        <v>483.84373569488531</v>
+        <v>594.76353335380554</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -2579,7 +2558,7 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2588,38 +2567,38 @@
         <v>8</v>
       </c>
       <c r="E106">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F106">
-        <v>884.85801911354065</v>
+        <v>18.940191030502319</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E107">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="F107">
-        <v>594.76353335380554</v>
+        <v>1535.7270474433899</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2631,7 +2610,7 @@
         <v>10</v>
       </c>
       <c r="F108">
-        <v>18.940191030502319</v>
+        <v>51.755959749221802</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -2642,44 +2621,44 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
         <v>8</v>
       </c>
       <c r="E109">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F109">
-        <v>1535.7270474433899</v>
+        <v>33.021071910858147</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E110">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F110">
-        <v>51.755959749221802</v>
+        <v>616.45898771286011</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2688,35 +2667,35 @@
         <v>8</v>
       </c>
       <c r="E111">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F111">
-        <v>33.021071910858147</v>
+        <v>476.2376754283905</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E112">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F112">
-        <v>616.45898771286011</v>
+        <v>625.63209509849548</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -2728,18 +2707,18 @@
         <v>8</v>
       </c>
       <c r="E113">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F113">
-        <v>476.2376754283905</v>
+        <v>229.12210726737979</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -2748,35 +2727,35 @@
         <v>8</v>
       </c>
       <c r="E114">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F114">
-        <v>625.63209509849548</v>
+        <v>24.988689422607418</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115">
         <v>8</v>
       </c>
       <c r="E115">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F115">
-        <v>229.12210726737979</v>
+        <v>770.52883100509644</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -2791,115 +2770,115 @@
         <v>10</v>
       </c>
       <c r="F116">
-        <v>24.988689422607418</v>
+        <v>255.29571199417111</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E117">
         <v>1000</v>
       </c>
       <c r="F117">
-        <v>770.52883100509644</v>
+        <v>800.99955868721008</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E118">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F118">
-        <v>255.29571199417111</v>
+        <v>4.5605082511901864</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E119">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F119">
-        <v>800.99955868721008</v>
+        <v>461.42039847373962</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E120">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F120">
-        <v>4.5605082511901864</v>
+        <v>572.83353757858276</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E121">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F121">
-        <v>461.42039847373962</v>
+        <v>1472.5319240093229</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -2908,10 +2887,10 @@
         <v>12</v>
       </c>
       <c r="E122">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F122">
-        <v>572.83353757858276</v>
+        <v>4.2485721111297607</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -2919,7 +2898,7 @@
         <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -2928,10 +2907,10 @@
         <v>12</v>
       </c>
       <c r="E123">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F123">
-        <v>1472.5319240093229</v>
+        <v>98.090380430221558</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -2939,19 +2918,19 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E124">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F124">
-        <v>4.2485721111297607</v>
+        <v>16.212700366973881</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -2959,27 +2938,27 @@
         <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E125">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F125">
-        <v>98.090380430221558</v>
+        <v>583.31228470802307</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -2991,15 +2970,15 @@
         <v>500</v>
       </c>
       <c r="F126">
-        <v>16.212700366973881</v>
+        <v>458.08300352096558</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -3008,130 +2987,130 @@
         <v>8</v>
       </c>
       <c r="E127">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F127">
-        <v>583.31228470802307</v>
+        <v>1512.4357740879061</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E128">
         <v>500</v>
       </c>
       <c r="F128">
-        <v>458.08300352096558</v>
+        <v>720.10384631156921</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F129">
-        <v>1512.4357740879061</v>
+        <v>7.0980684757232666</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E130">
         <v>500</v>
       </c>
       <c r="F130">
-        <v>720.10384631156921</v>
+        <v>250.31184005737299</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E131">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F131">
-        <v>7.0980684757232666</v>
+        <v>439.67274308204651</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E132">
         <v>500</v>
       </c>
       <c r="F132">
-        <v>250.31184005737299</v>
+        <v>16.514347076416019</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F133">
-        <v>439.67274308204651</v>
+        <v>48.602856874465942</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -3142,16 +3121,16 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E134">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="F134">
-        <v>16.514347076416019</v>
+        <v>3945.219407320023</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -3159,39 +3138,39 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E135">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F135">
-        <v>48.602856874465942</v>
+        <v>10.80675649642944</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E136">
-        <v>25000</v>
+        <v>10</v>
       </c>
       <c r="F136">
-        <v>3945.219407320023</v>
+        <v>28.84411001205444</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -3199,39 +3178,39 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E137">
         <v>1000</v>
       </c>
       <c r="F137">
-        <v>10.80675649642944</v>
+        <v>285.06791353225708</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138">
         <v>12</v>
       </c>
       <c r="E138">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F138">
-        <v>28.84411001205444</v>
+        <v>10.607242584228519</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -3245,13 +3224,13 @@
         <v>2</v>
       </c>
       <c r="D139">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E139">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="F139">
-        <v>285.06791353225708</v>
+        <v>7350.8549752235413</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -3259,19 +3238,19 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="D140">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E140">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F140">
-        <v>10.607242584228519</v>
+        <v>3.5157372951507568</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -3288,41 +3267,41 @@
         <v>8</v>
       </c>
       <c r="E141">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="F141">
-        <v>7350.8549752235413</v>
+        <v>244.72793745994571</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E142">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F142">
-        <v>3.5157372951507568</v>
+        <v>1218.9681913852689</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
         <v>8</v>
@@ -3331,47 +3310,47 @@
         <v>100</v>
       </c>
       <c r="F143">
-        <v>244.72793745994571</v>
+        <v>250.2114276885986</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E144">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F144">
-        <v>1218.9681913852689</v>
+        <v>247.50748324394229</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E145">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="F145">
-        <v>250.2114276885986</v>
+        <v>1555.7013378143311</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -3385,13 +3364,13 @@
         <v>2</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E146">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F146">
-        <v>247.50748324394229</v>
+        <v>270.34047961235052</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -3399,7 +3378,7 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C147">
         <v>2</v>
@@ -3408,10 +3387,10 @@
         <v>4</v>
       </c>
       <c r="E147">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F147">
-        <v>1555.7013378143311</v>
+        <v>113.9789369106293</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -3419,39 +3398,39 @@
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E148">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="F148">
-        <v>270.34047961235052</v>
+        <v>17.306994199752811</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E149">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F149">
-        <v>113.9789369106293</v>
+        <v>245.3757746219635</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -3459,27 +3438,27 @@
         <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150">
         <v>4</v>
       </c>
       <c r="E150">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F150">
-        <v>17.306994199752811</v>
+        <v>273.56779217720032</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -3488,10 +3467,10 @@
         <v>8</v>
       </c>
       <c r="E151">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F151">
-        <v>245.3757746219635</v>
+        <v>2.9750912189483638</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -3499,19 +3478,19 @@
         <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152">
         <v>4</v>
       </c>
       <c r="E152">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="F152">
-        <v>273.56779217720032</v>
+        <v>146.8020091056824</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -3519,19 +3498,19 @@
         <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153">
         <v>8</v>
       </c>
       <c r="E153">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F153">
-        <v>2.9750912189483638</v>
+        <v>9.419994592666626</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -3539,7 +3518,7 @@
         <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -3548,10 +3527,10 @@
         <v>4</v>
       </c>
       <c r="E154">
-        <v>50000</v>
+        <v>10</v>
       </c>
       <c r="F154">
-        <v>146.8020091056824</v>
+        <v>2.6129047870635991</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -3559,19 +3538,19 @@
         <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E155">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="F155">
-        <v>9.419994592666626</v>
+        <v>73.598711252212524</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -3579,19 +3558,19 @@
         <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E156">
         <v>10</v>
       </c>
       <c r="F156">
-        <v>2.6129047870635991</v>
+        <v>3.047935962677002</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -3599,24 +3578,24 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E157">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="F157">
-        <v>73.598711252212524</v>
+        <v>679.66512513160706</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B158" t="s">
         <v>12</v>
@@ -3625,41 +3604,41 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E158">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F158">
-        <v>3.047935962677002</v>
+        <v>127.6752126216888</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E159">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F159">
-        <v>679.66512513160706</v>
+        <v>1549.8671298027041</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -3671,27 +3650,27 @@
         <v>100</v>
       </c>
       <c r="F160">
-        <v>127.6752126216888</v>
+        <v>14.310724973678591</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E161">
         <v>500</v>
       </c>
       <c r="F161">
-        <v>1549.8671298027041</v>
+        <v>444.68247270584112</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -3702,16 +3681,16 @@
         <v>10</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E162">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F162">
-        <v>14.310724973678591</v>
+        <v>436.93736886978149</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -3719,7 +3698,7 @@
         <v>13</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -3728,10 +3707,10 @@
         <v>12</v>
       </c>
       <c r="E163">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F163">
-        <v>444.68247270584112</v>
+        <v>1111.6888129711151</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -3742,16 +3721,16 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <v>4</v>
       </c>
       <c r="E164">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F164">
-        <v>436.93736886978149</v>
+        <v>14.110223054885861</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -3765,93 +3744,93 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E165">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F165">
-        <v>1111.6888129711151</v>
+        <v>164.02287864685059</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E166">
         <v>100</v>
       </c>
       <c r="F166">
-        <v>14.110223054885861</v>
+        <v>95.874529361724854</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167">
         <v>4</v>
       </c>
       <c r="E167">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="F167">
-        <v>164.02287864685059</v>
+        <v>2399.3721778392792</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E168">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F168">
-        <v>95.874529361724854</v>
+        <v>8.9715304374694824</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E169">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F169">
-        <v>2399.3721778392792</v>
+        <v>1502.9395160675051</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -3859,7 +3838,7 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -3868,15 +3847,15 @@
         <v>4</v>
       </c>
       <c r="E170">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F170">
-        <v>8.9715304374694824</v>
+        <v>6.3424549102783203</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
@@ -3885,21 +3864,21 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E171">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F171">
-        <v>1502.9395160675051</v>
+        <v>3.961488008499146</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -3908,15 +3887,15 @@
         <v>4</v>
       </c>
       <c r="E172">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F172">
-        <v>6.3424549102783203</v>
+        <v>1218.8111727237699</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
@@ -3925,41 +3904,41 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E173">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F173">
-        <v>3.961488008499146</v>
+        <v>1616.6788711547849</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E174">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F174">
-        <v>1218.8111727237699</v>
+        <v>6.3891904354095459</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -3971,7 +3950,7 @@
         <v>1000</v>
       </c>
       <c r="F175">
-        <v>1616.6788711547849</v>
+        <v>4.3137569427490234</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -3982,16 +3961,16 @@
         <v>7</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E176">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F176">
-        <v>6.3891904354095459</v>
+        <v>769.89016127586365</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -3999,19 +3978,19 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
         <v>8</v>
       </c>
       <c r="E177">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F177">
-        <v>4.3137569427490234</v>
+        <v>767.28910303115845</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -4019,19 +3998,19 @@
         <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E178">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="F178">
-        <v>769.89016127586365</v>
+        <v>25.744378089904789</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -4039,19 +4018,19 @@
         <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F179">
-        <v>767.28910303115845</v>
+        <v>21.148234367370609</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -4059,19 +4038,19 @@
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E180">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="F180">
-        <v>25.744378089904789</v>
+        <v>3.0152089595794682</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -4082,61 +4061,61 @@
         <v>10</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181">
         <v>4</v>
       </c>
       <c r="E181">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F181">
-        <v>21.148234367370609</v>
+        <v>3045.149248361588</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B182" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E182">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F182">
-        <v>3.0152089595794682</v>
+        <v>462.62716197967529</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E183">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F183">
-        <v>3045.149248361588</v>
+        <v>1158.0031840801239</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
@@ -4148,18 +4127,18 @@
         <v>8</v>
       </c>
       <c r="E184">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F184">
-        <v>462.62716197967529</v>
+        <v>17.703288316726681</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -4171,7 +4150,7 @@
         <v>1000</v>
       </c>
       <c r="F185">
-        <v>1158.0031840801239</v>
+        <v>232.91988778114319</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -4182,56 +4161,56 @@
         <v>7</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E186">
         <v>10000</v>
       </c>
       <c r="F186">
-        <v>17.703288316726681</v>
+        <v>1642.555634498596</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E187">
         <v>1000</v>
       </c>
       <c r="F187">
-        <v>232.91988778114319</v>
+        <v>783.6746129989624</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B188" t="s">
         <v>7</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
         <v>12</v>
       </c>
       <c r="E188">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F188">
-        <v>1642.555634498596</v>
+        <v>20.69341421127319</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -4248,10 +4227,10 @@
         <v>4</v>
       </c>
       <c r="E189">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F189">
-        <v>783.6746129989624</v>
+        <v>630.30276775360107</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -4265,13 +4244,13 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E190">
         <v>10</v>
       </c>
       <c r="F190">
-        <v>20.69341421127319</v>
+        <v>27.2507438659668</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -4279,27 +4258,27 @@
         <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E191">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F191">
-        <v>630.30276775360107</v>
+        <v>40.483532905578613</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -4308,10 +4287,10 @@
         <v>8</v>
       </c>
       <c r="E192">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F192">
-        <v>27.2507438659668</v>
+        <v>4.4167909622192383</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -4319,19 +4298,19 @@
         <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E193">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F193">
-        <v>40.483532905578613</v>
+        <v>15.550602674484249</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -4339,59 +4318,59 @@
         <v>6</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194">
         <v>8</v>
       </c>
       <c r="E194">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F194">
-        <v>4.4167909622192383</v>
+        <v>628.44901871681213</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B195" t="s">
         <v>12</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
         <v>8</v>
       </c>
       <c r="E195">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F195">
-        <v>15.550602674484249</v>
+        <v>668.73451161384583</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E196">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F196">
-        <v>628.44901871681213</v>
+        <v>1202.959496021271</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -4408,50 +4387,50 @@
         <v>8</v>
       </c>
       <c r="E197">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F197">
-        <v>668.73451161384583</v>
+        <v>529.9016809463501</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B198" t="s">
         <v>8</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198">
         <v>4</v>
       </c>
       <c r="E198">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F198">
-        <v>1202.959496021271</v>
+        <v>2.9983456134796138</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E199">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F199">
-        <v>529.9016809463501</v>
+        <v>6.9077799320220947</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -4459,79 +4438,79 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E200">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F200">
-        <v>2.9983456134796138</v>
+        <v>21.018509149551392</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E201">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F201">
-        <v>6.9077799320220947</v>
+        <v>843.15590500831604</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E202">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F202">
-        <v>21.018509149551392</v>
+        <v>19.898268461227421</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E203">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F203">
-        <v>843.15590500831604</v>
+        <v>6.6999902725219727</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -4539,19 +4518,19 @@
         <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E204">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F204">
-        <v>19.898268461227421</v>
+        <v>438.10781645774841</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -4559,27 +4538,27 @@
         <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E205">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F205">
-        <v>6.6999902725219727</v>
+        <v>15.59159684181213</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -4591,7 +4570,7 @@
         <v>1000</v>
       </c>
       <c r="F206">
-        <v>438.10781645774841</v>
+        <v>4.3075728416442871</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -4599,19 +4578,19 @@
         <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E207">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="F207">
-        <v>15.59159684181213</v>
+        <v>59.357218742370613</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -4619,19 +4598,19 @@
         <v>6</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208">
         <v>12</v>
       </c>
       <c r="E208">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="F208">
-        <v>4.3075728416442871</v>
+        <v>4363.7528581619263</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -4639,19 +4618,19 @@
         <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E209">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="F209">
-        <v>59.357218742370613</v>
+        <v>3.5274686813354492</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -4662,56 +4641,56 @@
         <v>7</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E210">
         <v>25000</v>
       </c>
       <c r="F210">
-        <v>4363.7528581619263</v>
+        <v>39.496699333190918</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211">
         <v>12</v>
       </c>
       <c r="E211">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F211">
-        <v>3.5274686813354492</v>
+        <v>120.8529329299927</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E212">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c r="F212">
-        <v>39.496699333190918</v>
+        <v>271.85244131088263</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -4719,39 +4698,39 @@
         <v>13</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E213">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F213">
-        <v>120.8529329299927</v>
+        <v>1452.1622061729429</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E214">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F214">
-        <v>271.85244131088263</v>
+        <v>861.9958028793335</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -4759,19 +4738,19 @@
         <v>13</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E215">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F215">
-        <v>1452.1622061729429</v>
+        <v>21.602296352386471</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -4782,16 +4761,16 @@
         <v>10</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E216">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="F216">
-        <v>861.9958028793335</v>
+        <v>99.05709981918335</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -4799,19 +4778,19 @@
         <v>13</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E217">
         <v>10</v>
       </c>
       <c r="F217">
-        <v>21.602296352386471</v>
+        <v>24.783492565155029</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -4819,24 +4798,24 @@
         <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
         <v>12</v>
       </c>
       <c r="E218">
-        <v>25000</v>
+        <v>10</v>
       </c>
       <c r="F218">
-        <v>99.05709981918335</v>
+        <v>3.0056507587432861</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B219" t="s">
         <v>12</v>
@@ -4845,13 +4824,13 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E219">
         <v>10</v>
       </c>
       <c r="F219">
-        <v>24.783492565155029</v>
+        <v>52.134536027908332</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -4859,27 +4838,27 @@
         <v>6</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220">
         <v>2</v>
       </c>
       <c r="D220">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E220">
         <v>10</v>
       </c>
       <c r="F220">
-        <v>3.0056507587432861</v>
+        <v>58.998356580734253</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -4888,10 +4867,10 @@
         <v>12</v>
       </c>
       <c r="E221">
-        <v>10</v>
+        <v>50000</v>
       </c>
       <c r="F221">
-        <v>52.134536027908332</v>
+        <v>179.58053970336911</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -4902,21 +4881,21 @@
         <v>7</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E222">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F222">
-        <v>58.998356580734253</v>
+        <v>7.0010340213775626</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B223" t="s">
         <v>10</v>
@@ -4928,10 +4907,10 @@
         <v>12</v>
       </c>
       <c r="E223">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="F223">
-        <v>179.58053970336911</v>
+        <v>160.65188694000241</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -4942,36 +4921,36 @@
         <v>7</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E224">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="F224">
-        <v>7.0010340213775626</v>
+        <v>8626.9690351486206</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E225">
-        <v>100</v>
+        <v>50000</v>
       </c>
       <c r="F225">
-        <v>160.65188694000241</v>
+        <v>75.057251691818237</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -4979,19 +4958,19 @@
         <v>6</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226">
         <v>2</v>
       </c>
       <c r="D226">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E226">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F226">
-        <v>8626.9690351486206</v>
+        <v>11.076189756393431</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -4999,19 +4978,19 @@
         <v>6</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E227">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F227">
-        <v>75.057251691818237</v>
+        <v>9.3313179016113281</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -5019,7 +4998,7 @@
         <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C228">
         <v>2</v>
@@ -5031,7 +5010,7 @@
         <v>1000</v>
       </c>
       <c r="F228">
-        <v>11.076189756393431</v>
+        <v>12.06015110015869</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -5039,39 +5018,39 @@
         <v>6</v>
       </c>
       <c r="B229" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C229">
         <v>2</v>
       </c>
       <c r="D229">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E229">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="F229">
-        <v>9.3313179016113281</v>
+        <v>14656.660126209261</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E230">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F230">
-        <v>12.06015110015869</v>
+        <v>645.68849229812622</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -5085,21 +5064,21 @@
         <v>2</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E231">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F231">
-        <v>14656.660126209261</v>
+        <v>289.46587204933172</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -5108,10 +5087,10 @@
         <v>12</v>
       </c>
       <c r="E232">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F232">
-        <v>645.68849229812622</v>
+        <v>8.9341650009155273</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -5119,19 +5098,19 @@
         <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
         <v>8</v>
       </c>
       <c r="E233">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F233">
-        <v>289.46587204933172</v>
+        <v>11.143316507339479</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -5142,84 +5121,84 @@
         <v>12</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E234">
         <v>1000</v>
       </c>
       <c r="F234">
-        <v>8.9341650009155273</v>
+        <v>85.145682573318481</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E235">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="F235">
-        <v>11.143316507339479</v>
+        <v>37.539304256439209</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B236" t="s">
         <v>12</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E236">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F236">
-        <v>85.145682573318481</v>
+        <v>577.1045925617218</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E237">
-        <v>10</v>
+        <v>25000</v>
       </c>
       <c r="F237">
-        <v>37.539304256439209</v>
+        <v>7318.8226721286774</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -5228,35 +5207,35 @@
         <v>12</v>
       </c>
       <c r="E238">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F238">
-        <v>577.1045925617218</v>
+        <v>2.9979336261749272</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E239">
-        <v>25000</v>
+        <v>100</v>
       </c>
       <c r="F239">
-        <v>7318.8226721286774</v>
+        <v>135.5221223831177</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -5268,35 +5247,35 @@
         <v>12</v>
       </c>
       <c r="E240">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F240">
-        <v>2.9979336261749272</v>
+        <v>462.42166447639471</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E241">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F241">
-        <v>135.5221223831177</v>
+        <v>111.13218379020689</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B242" t="s">
         <v>7</v>
@@ -5305,21 +5284,21 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E242">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F242">
-        <v>462.42166447639471</v>
+        <v>2.9468758106231689</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -5328,35 +5307,35 @@
         <v>4</v>
       </c>
       <c r="E243">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="F243">
-        <v>111.13218379020689</v>
+        <v>155.07632827758789</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E244">
         <v>10</v>
       </c>
       <c r="F244">
-        <v>2.9468758106231689</v>
+        <v>255.41141581535339</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B245" t="s">
         <v>7</v>
@@ -5365,13 +5344,13 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E245">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F245">
-        <v>155.07632827758789</v>
+        <v>469.02785611152649</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -5379,7 +5358,7 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -5388,10 +5367,10 @@
         <v>12</v>
       </c>
       <c r="E246">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F246">
-        <v>255.41141581535339</v>
+        <v>231.10703945159909</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -5408,18 +5387,18 @@
         <v>12</v>
       </c>
       <c r="E247">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F247">
-        <v>469.02785611152649</v>
+        <v>51.385494232177727</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B248" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -5428,38 +5407,38 @@
         <v>12</v>
       </c>
       <c r="E248">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F248">
-        <v>231.10703945159909</v>
+        <v>1123.7430124282839</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E249">
         <v>10</v>
       </c>
       <c r="F249">
-        <v>51.385494232177727</v>
+        <v>29.411742687225338</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -5468,10 +5447,10 @@
         <v>12</v>
       </c>
       <c r="E250">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F250">
-        <v>1123.7430124282839</v>
+        <v>1525.655538082123</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -5479,59 +5458,59 @@
         <v>13</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E251">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F251">
-        <v>29.411742687225338</v>
+        <v>587.77069211006165</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B252" t="s">
         <v>10</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252">
         <v>12</v>
       </c>
       <c r="E252">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F252">
-        <v>1525.655538082123</v>
+        <v>48.795100688934333</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B253" t="s">
         <v>7</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253">
         <v>8</v>
       </c>
       <c r="E253">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="F253">
-        <v>587.77069211006165</v>
+        <v>2404.1479768753052</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -5539,99 +5518,99 @@
         <v>6</v>
       </c>
       <c r="B254" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D254">
         <v>12</v>
       </c>
       <c r="E254">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="F254">
-        <v>48.795100688934333</v>
+        <v>19.809304475784302</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B255" t="s">
         <v>7</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E255">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="F255">
-        <v>2404.1479768753052</v>
+        <v>724.54967617988586</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E256">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F256">
-        <v>19.809304475784302</v>
+        <v>21.996458053588871</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D257">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E257">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="F257">
-        <v>724.54967617988586</v>
+        <v>1120.3518793582921</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E258">
         <v>10</v>
       </c>
       <c r="F258">
-        <v>21.996458053588871</v>
+        <v>19.912943840026859</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -5648,18 +5627,18 @@
         <v>12</v>
       </c>
       <c r="E259">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="F259">
-        <v>1120.3518793582921</v>
+        <v>4977.5812919139862</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -5668,10 +5647,10 @@
         <v>12</v>
       </c>
       <c r="E260">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F260">
-        <v>19.912943840026859</v>
+        <v>6.4725162982940674</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
@@ -5688,10 +5667,10 @@
         <v>12</v>
       </c>
       <c r="E261">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="F261">
-        <v>4977.5812919139862</v>
+        <v>268.14186692237848</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
@@ -5699,39 +5678,39 @@
         <v>6</v>
       </c>
       <c r="B262" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E262">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F262">
-        <v>6.4725162982940674</v>
+        <v>3.6119670867919922</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B263" t="s">
         <v>10</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263">
         <v>12</v>
       </c>
       <c r="E263">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F263">
-        <v>268.14186692237848</v>
+        <v>1532.044399023056</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -5739,27 +5718,27 @@
         <v>6</v>
       </c>
       <c r="B264" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C264">
         <v>2</v>
       </c>
       <c r="D264">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E264">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F264">
-        <v>3.6119670867919922</v>
+        <v>764.78035712242126</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B265" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -5768,10 +5747,10 @@
         <v>12</v>
       </c>
       <c r="E265">
-        <v>100</v>
+        <v>50000</v>
       </c>
       <c r="F265">
-        <v>1532.044399023056</v>
+        <v>51.889748573303223</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -5785,13 +5764,13 @@
         <v>2</v>
       </c>
       <c r="D266">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E266">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="F266">
-        <v>764.78035712242126</v>
+        <v>12735.700464248661</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -5799,19 +5778,19 @@
         <v>6</v>
       </c>
       <c r="B267" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D267">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E267">
-        <v>50000</v>
+        <v>10</v>
       </c>
       <c r="F267">
-        <v>51.889748573303223</v>
+        <v>49.103090286254883</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
@@ -5822,16 +5801,16 @@
         <v>7</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E268">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="F268">
-        <v>12735.700464248661</v>
+        <v>28.280961513519291</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
@@ -5839,7 +5818,7 @@
         <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C269">
         <v>2</v>
@@ -5848,10 +5827,10 @@
         <v>8</v>
       </c>
       <c r="E269">
-        <v>10</v>
+        <v>25000</v>
       </c>
       <c r="F269">
-        <v>49.103090286254883</v>
+        <v>6803.5771870613098</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
@@ -5859,10 +5838,10 @@
         <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270">
         <v>12</v>
@@ -5871,27 +5850,27 @@
         <v>25000</v>
       </c>
       <c r="F270">
-        <v>28.280961513519291</v>
+        <v>2651.0929660797119</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E271">
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="F271">
-        <v>6803.5771870613098</v>
+        <v>260.36431574821472</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
@@ -5902,27 +5881,27 @@
         <v>10</v>
       </c>
       <c r="C272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D272">
         <v>12</v>
       </c>
       <c r="E272">
-        <v>25000</v>
+        <v>100</v>
       </c>
       <c r="F272">
-        <v>2651.0929660797119</v>
+        <v>14.54088521003723</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D273">
         <v>12</v>
@@ -5931,15 +5910,15 @@
         <v>500</v>
       </c>
       <c r="F273">
-        <v>260.36431574821472</v>
+        <v>82.775772333145142</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B274" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -5951,18 +5930,18 @@
         <v>100</v>
       </c>
       <c r="F274">
-        <v>14.54088521003723</v>
+        <v>251.32598638534549</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B275" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D275">
         <v>12</v>
@@ -5971,7 +5950,7 @@
         <v>500</v>
       </c>
       <c r="F275">
-        <v>82.775772333145142</v>
+        <v>260.07218670845032</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -5979,7 +5958,7 @@
         <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -5988,18 +5967,18 @@
         <v>12</v>
       </c>
       <c r="E276">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F276">
-        <v>251.32598638534549</v>
+        <v>267.41876816749573</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -6011,27 +5990,27 @@
         <v>500</v>
       </c>
       <c r="F277">
-        <v>260.07218670845032</v>
+        <v>16.534734725952148</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D278">
         <v>12</v>
       </c>
       <c r="E278">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F278">
-        <v>267.41876816749573</v>
+        <v>75.925036191940308</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -6039,39 +6018,39 @@
         <v>6</v>
       </c>
       <c r="B279" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D279">
         <v>12</v>
       </c>
       <c r="E279">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="F279">
-        <v>16.534734725952148</v>
+        <v>888.7419958114624</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B280" t="s">
         <v>12</v>
       </c>
       <c r="C280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D280">
         <v>12</v>
       </c>
       <c r="E280">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F280">
-        <v>75.925036191940308</v>
+        <v>691.63048195838928</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -6079,39 +6058,39 @@
         <v>6</v>
       </c>
       <c r="B281" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E281">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="F281">
-        <v>888.7419958114624</v>
+        <v>270.35369849205023</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B282" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E282">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F282">
-        <v>691.63048195838928</v>
+        <v>2.5226161479949951</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
@@ -6119,7 +6098,7 @@
         <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -6128,10 +6107,10 @@
         <v>4</v>
       </c>
       <c r="E283">
-        <v>25000</v>
+        <v>10</v>
       </c>
       <c r="F283">
-        <v>270.35369849205023</v>
+        <v>3.059234619140625</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
@@ -6139,59 +6118,59 @@
         <v>6</v>
       </c>
       <c r="B284" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E284">
-        <v>10</v>
+        <v>50000</v>
       </c>
       <c r="F284">
-        <v>2.5226161479949951</v>
+        <v>525.05347728729248</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E285">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F285">
-        <v>3.059234619140625</v>
+        <v>1692.588768482208</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E286">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F286">
-        <v>525.05347728729248</v>
+        <v>644.67148661613464</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -6199,7 +6178,7 @@
         <v>9</v>
       </c>
       <c r="B287" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -6208,15 +6187,15 @@
         <v>12</v>
       </c>
       <c r="E287">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F287">
-        <v>1692.588768482208</v>
+        <v>527.75167036056519</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B288" t="s">
         <v>12</v>
@@ -6228,21 +6207,21 @@
         <v>12</v>
       </c>
       <c r="E288">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F288">
-        <v>644.67148661613464</v>
+        <v>8.8465077877044678</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B289" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D289">
         <v>12</v>
@@ -6251,47 +6230,47 @@
         <v>100</v>
       </c>
       <c r="F289">
-        <v>527.75167036056519</v>
+        <v>245.26521062850949</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B290" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D290">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E290">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F290">
-        <v>8.8465077877044678</v>
+        <v>368.30022382736212</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B291" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C291">
         <v>2</v>
       </c>
       <c r="D291">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E291">
         <v>100</v>
       </c>
       <c r="F291">
-        <v>245.26521062850949</v>
+        <v>6.3817019462585449</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
@@ -6299,7 +6278,7 @@
         <v>14</v>
       </c>
       <c r="B292" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C292">
         <v>2</v>
@@ -6308,10 +6287,10 @@
         <v>1</v>
       </c>
       <c r="E292">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F292">
-        <v>368.30022382736212</v>
+        <v>32.874533891677864</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
@@ -6319,7 +6298,7 @@
         <v>14</v>
       </c>
       <c r="B293" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C293">
         <v>2</v>
@@ -6328,10 +6307,10 @@
         <v>1</v>
       </c>
       <c r="E293">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F293">
-        <v>6.3817019462585449</v>
+        <v>93.886458158469992</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
@@ -6339,7 +6318,7 @@
         <v>14</v>
       </c>
       <c r="B294" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C294">
         <v>2</v>
@@ -6351,7 +6330,7 @@
         <v>500</v>
       </c>
       <c r="F294">
-        <v>32.874533891677864</v>
+        <v>1728.690114021301</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
@@ -6359,19 +6338,19 @@
         <v>14</v>
       </c>
       <c r="B295" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D295">
         <v>1</v>
       </c>
       <c r="E295">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F295">
-        <v>93.886458158469992</v>
+        <v>0.4105379581451416</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
@@ -6379,19 +6358,19 @@
         <v>14</v>
       </c>
       <c r="B296" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D296">
         <v>1</v>
       </c>
       <c r="E296">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F296">
-        <v>1728.690114021301</v>
+        <v>0.15543985366821289</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
@@ -6402,16 +6381,16 @@
         <v>12</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D297">
         <v>1</v>
       </c>
       <c r="E297">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F297">
-        <v>0.4105379581451416</v>
+        <v>537.74895906448364</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
@@ -6419,7 +6398,7 @@
         <v>14</v>
       </c>
       <c r="B298" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -6428,10 +6407,10 @@
         <v>1</v>
       </c>
       <c r="E298">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F298">
-        <v>0.15543985366821289</v>
+        <v>35.968138933181763</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
@@ -6439,19 +6418,19 @@
         <v>14</v>
       </c>
       <c r="B299" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D299">
         <v>1</v>
       </c>
       <c r="E299">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F299">
-        <v>537.74895906448364</v>
+        <v>0.23658418655395511</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
@@ -6462,16 +6441,16 @@
         <v>12</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D300">
         <v>1</v>
       </c>
       <c r="E300">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F300">
-        <v>35.968138933181763</v>
+        <v>111.9931969642639</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
@@ -6488,10 +6467,10 @@
         <v>1</v>
       </c>
       <c r="E301">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F301">
-        <v>0.23658418655395511</v>
+        <v>5.1914498805999756</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
@@ -6499,7 +6478,7 @@
         <v>14</v>
       </c>
       <c r="B302" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C302">
         <v>2</v>
@@ -6508,10 +6487,10 @@
         <v>1</v>
       </c>
       <c r="E302">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F302">
-        <v>111.9931969642639</v>
+        <v>40.887292146682739</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
@@ -6519,7 +6498,7 @@
         <v>14</v>
       </c>
       <c r="B303" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -6528,10 +6507,10 @@
         <v>1</v>
       </c>
       <c r="E303">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="F303">
-        <v>5.1914498805999756</v>
+        <v>150.56050705909729</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
@@ -6548,10 +6527,10 @@
         <v>1</v>
       </c>
       <c r="E304">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F304">
-        <v>40.887292146682739</v>
+        <v>3665.6226260662079</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
@@ -6559,7 +6538,7 @@
         <v>14</v>
       </c>
       <c r="B305" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -6568,10 +6547,10 @@
         <v>1</v>
       </c>
       <c r="E305">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="F305">
-        <v>150.56050705909729</v>
+        <v>1.2849380970001221</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
@@ -6579,7 +6558,7 @@
         <v>14</v>
       </c>
       <c r="B306" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C306">
         <v>2</v>
@@ -6588,10 +6567,10 @@
         <v>1</v>
       </c>
       <c r="E306">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F306">
-        <v>3665.6226260662079</v>
+        <v>61.398108243942261</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
@@ -6599,7 +6578,7 @@
         <v>14</v>
       </c>
       <c r="B307" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -6608,10 +6587,10 @@
         <v>1</v>
       </c>
       <c r="E307">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F307">
-        <v>1.2849380970001221</v>
+        <v>28.60790586471558</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
@@ -6619,7 +6598,7 @@
         <v>14</v>
       </c>
       <c r="B308" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C308">
         <v>2</v>
@@ -6628,10 +6607,10 @@
         <v>1</v>
       </c>
       <c r="E308">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F308">
-        <v>61.398108243942261</v>
+        <v>63.279038906097412</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
@@ -6648,10 +6627,10 @@
         <v>1</v>
       </c>
       <c r="E309">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F309">
-        <v>28.60790586471558</v>
+        <v>16.35371208190918</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
@@ -6659,19 +6638,19 @@
         <v>14</v>
       </c>
       <c r="B310" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D310">
         <v>1</v>
       </c>
       <c r="E310">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F310">
-        <v>63.279038906097412</v>
+        <v>3.713414192199707</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
@@ -6679,19 +6658,19 @@
         <v>14</v>
       </c>
       <c r="B311" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D311">
         <v>1</v>
       </c>
       <c r="E311">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F311">
-        <v>16.35371208190918</v>
+        <v>1.1513111591339109</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
@@ -6699,19 +6678,19 @@
         <v>14</v>
       </c>
       <c r="B312" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D312">
         <v>1</v>
       </c>
       <c r="E312">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F312">
-        <v>3.713414192199707</v>
+        <v>36.253551006317139</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
@@ -6719,19 +6698,19 @@
         <v>14</v>
       </c>
       <c r="B313" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D313">
         <v>1</v>
       </c>
       <c r="E313">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F313">
-        <v>1.1513111591339109</v>
+        <v>8.9388630390167236</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
@@ -6739,19 +6718,19 @@
         <v>14</v>
       </c>
       <c r="B314" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D314">
         <v>1</v>
       </c>
       <c r="E314">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="F314">
-        <v>36.253551006317139</v>
+        <v>2668.6036260128021</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
@@ -6759,19 +6738,19 @@
         <v>14</v>
       </c>
       <c r="B315" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D315">
         <v>1</v>
       </c>
       <c r="E315">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F315">
-        <v>8.9388630390167236</v>
+        <v>9.557117223739624</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
@@ -6788,10 +6767,10 @@
         <v>1</v>
       </c>
       <c r="E316">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="F316">
-        <v>2668.6036260128021</v>
+        <v>2072.0304720401759</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
@@ -6799,7 +6778,7 @@
         <v>14</v>
       </c>
       <c r="B317" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C317">
         <v>2</v>
@@ -6808,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="E317">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F317">
-        <v>9.557117223739624</v>
+        <v>3975.1522769927979</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
@@ -6828,10 +6807,10 @@
         <v>1</v>
       </c>
       <c r="E318">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="F318">
-        <v>2072.0304720401759</v>
+        <v>1048.0981361866</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
@@ -6839,7 +6818,7 @@
         <v>14</v>
       </c>
       <c r="B319" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C319">
         <v>2</v>
@@ -6848,10 +6827,10 @@
         <v>1</v>
       </c>
       <c r="E319">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F319">
-        <v>3975.1522769927979</v>
+        <v>0.48924779891967768</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
@@ -6868,10 +6847,10 @@
         <v>1</v>
       </c>
       <c r="E320">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F320">
-        <v>1048.0981361866</v>
+        <v>563.4894688129425</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
@@ -6879,7 +6858,7 @@
         <v>14</v>
       </c>
       <c r="B321" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C321">
         <v>2</v>
@@ -6891,7 +6870,7 @@
         <v>10</v>
       </c>
       <c r="F321">
-        <v>0.48924779891967768</v>
+        <v>11.954941272735599</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
@@ -6899,19 +6878,19 @@
         <v>14</v>
       </c>
       <c r="B322" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D322">
         <v>1</v>
       </c>
       <c r="E322">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F322">
-        <v>563.4894688129425</v>
+        <v>7415.4284820556641</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
@@ -6919,19 +6898,19 @@
         <v>14</v>
       </c>
       <c r="B323" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D323">
         <v>1</v>
       </c>
       <c r="E323">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F323">
-        <v>11.954941272735599</v>
+        <v>115.2979438304901</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
@@ -6948,10 +6927,10 @@
         <v>1</v>
       </c>
       <c r="E324">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F324">
-        <v>7415.4284820556641</v>
+        <v>759.87949895858765</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
@@ -6959,7 +6938,7 @@
         <v>14</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -6968,10 +6947,10 @@
         <v>1</v>
       </c>
       <c r="E325">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="F325">
-        <v>115.2979438304901</v>
+        <v>1251.268331050873</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
@@ -6979,7 +6958,7 @@
         <v>14</v>
       </c>
       <c r="B326" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C326">
         <v>2</v>
@@ -6988,10 +6967,10 @@
         <v>1</v>
       </c>
       <c r="E326">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F326">
-        <v>759.87949895858765</v>
+        <v>1077.912473917007</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
@@ -6999,7 +6978,7 @@
         <v>14</v>
       </c>
       <c r="B327" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C327">
         <v>1</v>
@@ -7008,10 +6987,10 @@
         <v>1</v>
       </c>
       <c r="E327">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="F327">
-        <v>1251.268331050873</v>
+        <v>1.1362960338592529</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -7019,19 +6998,19 @@
         <v>14</v>
       </c>
       <c r="B328" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D328">
         <v>1</v>
       </c>
       <c r="E328">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F328">
-        <v>1077.912473917007</v>
+        <v>11.875646114349371</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
@@ -7039,7 +7018,7 @@
         <v>14</v>
       </c>
       <c r="B329" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C329">
         <v>1</v>
@@ -7048,10 +7027,10 @@
         <v>1</v>
       </c>
       <c r="E329">
-        <v>100</v>
+        <v>25000</v>
       </c>
       <c r="F329">
-        <v>1.1362960338592529</v>
+        <v>666.25901913642883</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
@@ -7068,10 +7047,10 @@
         <v>1</v>
       </c>
       <c r="E330">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F330">
-        <v>11.875646114349371</v>
+        <v>52.354872703552253</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
@@ -7079,7 +7058,7 @@
         <v>14</v>
       </c>
       <c r="B331" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -7088,10 +7067,10 @@
         <v>1</v>
       </c>
       <c r="E331">
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="F331">
-        <v>666.25901913642883</v>
+        <v>4.9162161350250244</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
@@ -7099,7 +7078,7 @@
         <v>14</v>
       </c>
       <c r="B332" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -7108,10 +7087,10 @@
         <v>1</v>
       </c>
       <c r="E332">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F332">
-        <v>52.354872703552253</v>
+        <v>0.33926081657409668</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
@@ -7119,7 +7098,7 @@
         <v>14</v>
       </c>
       <c r="B333" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -7131,7 +7110,7 @@
         <v>500</v>
       </c>
       <c r="F333">
-        <v>4.9162161350250244</v>
+        <v>18.578573703765869</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
@@ -7139,7 +7118,7 @@
         <v>14</v>
       </c>
       <c r="B334" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -7148,10 +7127,10 @@
         <v>1</v>
       </c>
       <c r="E334">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F334">
-        <v>0.33926081657409668</v>
+        <v>3.8238580226898189</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
@@ -7159,7 +7138,7 @@
         <v>14</v>
       </c>
       <c r="B335" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C335">
         <v>1</v>
@@ -7168,10 +7147,10 @@
         <v>1</v>
       </c>
       <c r="E335">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F335">
-        <v>18.578573703765869</v>
+        <v>7.7788300514221191</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
@@ -7179,7 +7158,7 @@
         <v>14</v>
       </c>
       <c r="B336" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -7188,10 +7167,10 @@
         <v>1</v>
       </c>
       <c r="E336">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F336">
-        <v>3.8238580226898189</v>
+        <v>290.66022825241089</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
@@ -7199,7 +7178,7 @@
         <v>14</v>
       </c>
       <c r="B337" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C337">
         <v>1</v>
@@ -7208,49 +7187,9 @@
         <v>1</v>
       </c>
       <c r="E337">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F337">
-        <v>7.7788300514221191</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>14</v>
-      </c>
-      <c r="B338" t="s">
-        <v>7</v>
-      </c>
-      <c r="C338">
-        <v>1</v>
-      </c>
-      <c r="D338">
-        <v>1</v>
-      </c>
-      <c r="E338">
-        <v>10000</v>
-      </c>
-      <c r="F338">
-        <v>290.66022825241089</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
-        <v>14</v>
-      </c>
-      <c r="B339" t="s">
-        <v>10</v>
-      </c>
-      <c r="C339">
-        <v>1</v>
-      </c>
-      <c r="D339">
-        <v>1</v>
-      </c>
-      <c r="E339">
-        <v>10</v>
-      </c>
-      <c r="F339">
         <v>1.145713090896606</v>
       </c>
     </row>
